--- a/src/com/flipkart/data/LoginTestData.xlsx
+++ b/src/com/flipkart/data/LoginTestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Testing Hands On\Automation Programs\First Attempt towards POM\src\com\flipkart\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9A6557-672D-4C32-88BE-6BBFDDF4A701}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{35B8EED4-9E62-4470-A716-22BB8FE75FCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -49,6 +45,12 @@
   </si>
   <si>
     <t>abcd1232</t>
+  </si>
+  <si>
+    <t>lokhande8madhuri@gmail.com</t>
+  </si>
+  <si>
+    <t>Madhuri8l</t>
   </si>
 </sst>
 </file>
@@ -114,10 +116,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -400,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -420,37 +423,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{D8302691-C7ED-44A1-8324-43B6D464E9B8}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{1B3EFBB7-FCA7-44CD-8EE6-B34A1347188E}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{BEF86F3F-C23A-4989-B556-9BA6FE9E8C89}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{D8302691-C7ED-44A1-8324-43B6D464E9B8}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{1B3EFBB7-FCA7-44CD-8EE6-B34A1347188E}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{BEF86F3F-C23A-4989-B556-9BA6FE9E8C89}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{53B3E23D-D777-4ACE-9DA0-841DBD9C0FE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>